--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Jan Clyde</t>
-  </si>
-  <si>
-    <t>Kaylee Gray</t>
   </si>
   <si>
     <t>Joy Heldman</t>
@@ -81,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -110,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +135,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,792 +508,892 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>43996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>208</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <v>28.92</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>43998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
         <v>225</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>30.04</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="10">
         <v>9.7799999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>43998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
         <v>103</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>29.38</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>44000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>217</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>31.37</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44007</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <v>205</v>
+      </c>
+      <c r="G7" s="10">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H7" s="10">
+        <v>13.66</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>44000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1">
-        <v>41.96</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="9">
+        <v>44007</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10">
+        <v>28.17</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4.55</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44008</v>
+      </c>
+      <c r="C9" s="10">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10">
+        <v>71.03</v>
+      </c>
+      <c r="E9" s="10">
+        <v>8.33</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>591</v>
+      </c>
+      <c r="J9" s="10">
+        <v>178.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44009</v>
+      </c>
+      <c r="C10" s="10">
+        <v>161</v>
+      </c>
+      <c r="D10" s="10">
+        <v>29.21</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10.56</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44011</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>41</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44.92</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44011</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>120</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44.28</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5.83</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>44007</v>
-      </c>
-      <c r="F8" s="1">
-        <v>205</v>
-      </c>
-      <c r="G8" s="1">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B13" s="9">
+        <v>44011</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>283</v>
+      </c>
+      <c r="G13" s="10">
+        <v>38.33</v>
+      </c>
+      <c r="H13" s="10">
+        <v>12.37</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44012</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10">
+        <v>39.89</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44012</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44012</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>201</v>
+      </c>
+      <c r="G16" s="10">
+        <v>34.83</v>
+      </c>
+      <c r="H16" s="10">
+        <v>12.44</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <v>44007</v>
-      </c>
-      <c r="F9" s="1">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>28.17</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" s="9">
+        <v>44013</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>345</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45.48</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44013</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>239</v>
+      </c>
+      <c r="G18" s="10">
+        <v>37.57</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44016</v>
+      </c>
+      <c r="C19" s="10">
+        <v>142</v>
+      </c>
+      <c r="D19" s="10">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4.93</v>
+      </c>
+      <c r="F19" s="10">
+        <v>88</v>
+      </c>
+      <c r="G19" s="10">
+        <v>31.49</v>
+      </c>
+      <c r="H19" s="10">
+        <v>9.09</v>
+      </c>
+      <c r="I19" s="10">
+        <v>126</v>
+      </c>
+      <c r="J19" s="10">
+        <v>162.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44017</v>
+      </c>
+      <c r="C20" s="10">
+        <v>250</v>
+      </c>
+      <c r="D20" s="10">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="F20" s="10">
+        <v>229</v>
+      </c>
+      <c r="G20" s="10">
+        <v>59.68</v>
+      </c>
+      <c r="H20" s="10">
+        <v>7.86</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44017</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>498</v>
+      </c>
+      <c r="J21" s="10">
+        <v>143.72999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
-        <v>44008</v>
-      </c>
-      <c r="C10" s="1">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>71.03</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.33</v>
-      </c>
-      <c r="I10" s="1">
-        <v>591</v>
-      </c>
-      <c r="J10" s="1">
-        <v>178.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B22" s="9">
+        <v>44017</v>
+      </c>
+      <c r="C22" s="10">
+        <v>48</v>
+      </c>
+      <c r="D22" s="10">
+        <v>37.99</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10.42</v>
+      </c>
+      <c r="F22" s="10">
+        <v>241</v>
+      </c>
+      <c r="G22" s="10">
+        <v>45.06</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C23" s="10">
+        <v>111</v>
+      </c>
+      <c r="D23" s="10">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="10">
+        <v>291</v>
+      </c>
+      <c r="G23" s="10">
+        <v>43.15</v>
+      </c>
+      <c r="H23" s="10">
+        <v>4.47</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C24" s="10">
+        <v>292</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43.68</v>
+      </c>
+      <c r="E24" s="10">
+        <v>6.85</v>
+      </c>
+      <c r="F24" s="10">
+        <v>7</v>
+      </c>
+      <c r="G24" s="10">
+        <v>33.49</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2.96</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>203</v>
+      </c>
+      <c r="G25" s="10">
+        <v>33.54</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2.96</v>
+      </c>
+      <c r="I25" s="10">
+        <v>28</v>
+      </c>
+      <c r="J25" s="10">
+        <v>62.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>44009</v>
-      </c>
-      <c r="C11" s="1">
-        <v>161</v>
-      </c>
-      <c r="D11" s="1">
-        <v>29.21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B26" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>71</v>
+      </c>
+      <c r="G26" s="10">
+        <v>42.01</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2.82</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44020</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <v>408</v>
+      </c>
+      <c r="G27" s="10">
+        <v>55.18</v>
+      </c>
+      <c r="H27" s="10">
+        <v>6.62</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44020</v>
+      </c>
+      <c r="C28" s="10">
+        <v>256</v>
+      </c>
+      <c r="D28" s="10">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="E28" s="10">
+        <v>10.16</v>
+      </c>
+      <c r="F28" s="10">
+        <v>65</v>
+      </c>
+      <c r="G28" s="10">
+        <v>51.93</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>44011</v>
-      </c>
-      <c r="F12" s="1">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44.92</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="B29" s="9">
+        <v>44020</v>
+      </c>
+      <c r="C29" s="10">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10">
+        <v>17.43</v>
+      </c>
+      <c r="E29" s="10">
+        <v>15.45</v>
+      </c>
+      <c r="F29" s="10">
+        <v>53</v>
+      </c>
+      <c r="G29" s="10">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="H29" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>44011</v>
-      </c>
-      <c r="F13" s="1">
-        <v>120</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44.28</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B30" s="9">
+        <v>44021</v>
+      </c>
+      <c r="C30" s="10">
+        <v>99</v>
+      </c>
+      <c r="D30" s="10">
+        <v>52.29</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5.05</v>
+      </c>
+      <c r="F30" s="10">
+        <v>209</v>
+      </c>
+      <c r="G30" s="10">
+        <v>47.04</v>
+      </c>
+      <c r="H30" s="10">
+        <v>5.26</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
-        <v>44011</v>
-      </c>
-      <c r="F14" s="1">
-        <v>283</v>
-      </c>
-      <c r="G14" s="1">
-        <v>38.33</v>
-      </c>
-      <c r="H14" s="1">
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6">
-        <v>44012</v>
-      </c>
-      <c r="F15" s="1">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1">
-        <v>39.89</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="B31" s="9">
+        <v>44021</v>
+      </c>
+      <c r="C31" s="10">
+        <v>115</v>
+      </c>
+      <c r="D31" s="10">
+        <v>41.35</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F31" s="10">
+        <v>182</v>
+      </c>
+      <c r="G31" s="10">
+        <v>37.44</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9">
+        <v>44021</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
+        <v>27</v>
+      </c>
+      <c r="G32" s="10">
+        <v>38.96</v>
+      </c>
+      <c r="H32" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I32" s="10">
+        <v>518</v>
+      </c>
+      <c r="J32" s="10">
+        <v>150.30000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
-        <v>44012</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1">
-        <v>38.340000000000003</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>44012</v>
-      </c>
-      <c r="F17" s="1">
-        <v>201</v>
-      </c>
-      <c r="G17" s="1">
-        <v>34.83</v>
-      </c>
-      <c r="H17" s="1">
-        <v>12.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6">
-        <v>44013</v>
-      </c>
-      <c r="F18" s="1">
-        <v>345</v>
-      </c>
-      <c r="G18" s="1">
-        <v>45.48</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
-        <v>44013</v>
-      </c>
-      <c r="F19" s="1">
-        <v>239</v>
-      </c>
-      <c r="G19" s="1">
-        <v>37.57</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="6">
-        <v>44016</v>
-      </c>
-      <c r="C20" s="1">
-        <v>142</v>
-      </c>
-      <c r="D20" s="1">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.93</v>
-      </c>
-      <c r="F20" s="1">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1">
-        <v>31.49</v>
-      </c>
-      <c r="H20" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="I20" s="1">
-        <v>126</v>
-      </c>
-      <c r="J20" s="1">
-        <v>162.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44016</v>
-      </c>
-      <c r="C21" s="1">
-        <v>215</v>
-      </c>
-      <c r="D21" s="1">
-        <v>53.28</v>
-      </c>
-      <c r="E21" s="1">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="F21" s="1">
-        <v>92</v>
-      </c>
-      <c r="G21" s="1">
-        <v>55.12</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I21" s="1">
-        <v>90</v>
-      </c>
-      <c r="J21" s="1">
-        <v>130.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6">
-        <v>44017</v>
-      </c>
-      <c r="C22" s="1">
-        <v>250</v>
-      </c>
-      <c r="D22" s="1">
-        <v>73.959999999999994</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="F22" s="1">
-        <v>229</v>
-      </c>
-      <c r="G22" s="1">
-        <v>59.68</v>
-      </c>
-      <c r="H22" s="1">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6">
-        <v>44017</v>
-      </c>
-      <c r="I23" s="1">
-        <v>498</v>
-      </c>
-      <c r="J23" s="1">
-        <v>143.72999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6">
-        <v>44017</v>
-      </c>
-      <c r="C24" s="1">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1">
-        <v>37.99</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10.42</v>
-      </c>
-      <c r="F24" s="1">
-        <v>241</v>
-      </c>
-      <c r="G24" s="1">
-        <v>45.06</v>
-      </c>
-      <c r="H24" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6">
-        <v>44018</v>
-      </c>
-      <c r="C25" s="1">
-        <v>111</v>
-      </c>
-      <c r="D25" s="1">
-        <v>78.510000000000005</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F25" s="1">
-        <v>291</v>
-      </c>
-      <c r="G25" s="1">
-        <v>43.15</v>
-      </c>
-      <c r="H25" s="1">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6">
-        <v>44018</v>
-      </c>
-      <c r="C26" s="1">
-        <v>292</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43.68</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6.85</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1">
-        <v>33.49</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6">
-        <v>44018</v>
-      </c>
-      <c r="F27" s="1">
-        <v>203</v>
-      </c>
-      <c r="G27" s="1">
-        <v>33.54</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="I27" s="1">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1">
-        <v>62.76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6">
-        <v>44018</v>
-      </c>
-      <c r="F28" s="1">
-        <v>71</v>
-      </c>
-      <c r="G28" s="1">
-        <v>42.01</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6">
-        <v>44020</v>
-      </c>
-      <c r="F29" s="1">
-        <v>408</v>
-      </c>
-      <c r="G29" s="1">
-        <v>55.18</v>
-      </c>
-      <c r="H29" s="1">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6">
-        <v>44020</v>
-      </c>
-      <c r="C30" s="1">
-        <v>256</v>
-      </c>
-      <c r="D30" s="1">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10.16</v>
-      </c>
-      <c r="F30" s="1">
-        <v>65</v>
-      </c>
-      <c r="G30" s="1">
-        <v>51.93</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6">
-        <v>44020</v>
-      </c>
-      <c r="C31" s="1">
-        <v>110</v>
-      </c>
-      <c r="D31" s="1">
-        <v>17.43</v>
-      </c>
-      <c r="E31" s="1">
-        <v>15.45</v>
-      </c>
-      <c r="F31" s="1">
-        <v>53</v>
-      </c>
-      <c r="G31" s="1">
-        <v>36.119999999999997</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="B33" s="9">
         <v>44021</v>
       </c>
-      <c r="C32" s="1">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1">
-        <v>52.29</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5.05</v>
-      </c>
-      <c r="F32" s="1">
-        <v>209</v>
-      </c>
-      <c r="G32" s="1">
-        <v>47.04</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6">
-        <v>44021</v>
-      </c>
-      <c r="C33" s="1">
-        <v>115</v>
-      </c>
-      <c r="D33" s="1">
-        <v>41.35</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="F33" s="1">
-        <v>182</v>
-      </c>
-      <c r="G33" s="1">
-        <v>37.44</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="C33" s="10">
+        <v>208</v>
+      </c>
+      <c r="D33" s="10">
+        <v>38.53</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="F33" s="10">
+        <v>139</v>
+      </c>
+      <c r="G33" s="10">
+        <v>57.12</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4.32</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="6">
-        <v>44021</v>
+        <v>44023</v>
+      </c>
+      <c r="C34" s="1">
+        <v>290</v>
+      </c>
+      <c r="D34" s="1">
+        <v>116.27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.31</v>
       </c>
       <c r="F34" s="1">
+        <v>157</v>
+      </c>
+      <c r="G34" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="G34" s="1">
-        <v>38.96</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>518</v>
-      </c>
       <c r="J34" s="1">
-        <v>150.30000000000001</v>
+        <v>113.15</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="6">
-        <v>44021</v>
-      </c>
-      <c r="C35" s="1">
-        <v>208</v>
-      </c>
-      <c r="D35" s="1">
-        <v>38.53</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5.77</v>
+        <v>44024</v>
       </c>
       <c r="F35" s="1">
-        <v>139</v>
+        <v>383</v>
       </c>
       <c r="G35" s="1">
-        <v>57.12</v>
+        <v>51.58</v>
       </c>
       <c r="H35" s="1">
-        <v>4.32</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="6">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="C36" s="1">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="D36" s="1">
-        <v>116.27</v>
+        <v>42.27</v>
       </c>
       <c r="E36" s="1">
-        <v>9.31</v>
+        <v>3.47</v>
       </c>
       <c r="F36" s="1">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1">
-        <v>32.15</v>
+        <v>47.79</v>
       </c>
       <c r="H36" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="I36" s="1">
-        <v>27</v>
-      </c>
-      <c r="J36" s="1">
-        <v>113.15</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="6">
-        <v>44024</v>
+        <v>44025</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9.3000000000000007</v>
       </c>
       <c r="F37" s="1">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="G37" s="1">
-        <v>51.58</v>
+        <v>45.98</v>
       </c>
       <c r="H37" s="1">
-        <v>8.09</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" s="6">
-        <v>44024</v>
-      </c>
-      <c r="C38" s="1">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1">
-        <v>42.27</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3.47</v>
+        <v>44025</v>
       </c>
       <c r="F38" s="1">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="G38" s="1">
-        <v>47.79</v>
+        <v>42.02</v>
       </c>
       <c r="H38" s="1">
-        <v>0.8</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="6">
-        <v>44025</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="E39" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F39" s="1">
-        <v>356</v>
-      </c>
-      <c r="G39" s="1">
-        <v>45.98</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5.34</v>
+        <v>44027</v>
+      </c>
+      <c r="I39" s="1">
+        <v>633</v>
+      </c>
+      <c r="J39" s="1">
+        <v>177.12</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,30 +1401,51 @@
         <v>7</v>
       </c>
       <c r="B40" s="6">
-        <v>44025</v>
+        <v>44027</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>53.38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>13.33</v>
       </c>
       <c r="F40" s="1">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="G40" s="1">
-        <v>42.02</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="H40" s="1">
-        <v>4.75</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="6">
-        <v>44027</v>
-      </c>
-      <c r="I41" s="1">
-        <v>633</v>
-      </c>
-      <c r="J41" s="1">
-        <v>177.12</v>
+        <v>44028</v>
+      </c>
+      <c r="C41" s="1">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1">
+        <v>26.37</v>
+      </c>
+      <c r="E41" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="F41" s="1">
+        <v>241</v>
+      </c>
+      <c r="G41" s="1">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1322,25 +1453,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="6">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C42" s="1">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="D42" s="1">
-        <v>53.38</v>
+        <v>36.74</v>
       </c>
       <c r="E42" s="1">
-        <v>13.33</v>
-      </c>
-      <c r="F42" s="1">
-        <v>238</v>
-      </c>
-      <c r="G42" s="1">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="H42" s="1">
-        <v>4.62</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,111 +1470,120 @@
         <v>11</v>
       </c>
       <c r="B43" s="6">
-        <v>44028</v>
-      </c>
-      <c r="C43" s="1">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1">
-        <v>26.37</v>
-      </c>
-      <c r="E43" s="1">
-        <v>28.13</v>
+        <v>44029</v>
       </c>
       <c r="F43" s="1">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="G43" s="1">
-        <v>38.770000000000003</v>
+        <v>55.96</v>
       </c>
       <c r="H43" s="1">
-        <v>2.0699999999999998</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B44" s="6">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C44" s="1">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
-        <v>36.74</v>
+        <v>23.55</v>
       </c>
       <c r="E44" s="1">
-        <v>6.05</v>
+        <v>7.14</v>
+      </c>
+      <c r="F44" s="1">
+        <v>83</v>
+      </c>
+      <c r="G44" s="1">
+        <v>31.85</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7.23</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="6">
-        <v>44029</v>
+        <v>44030</v>
+      </c>
+      <c r="C45" s="1">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4.17</v>
       </c>
       <c r="F45" s="1">
-        <v>410</v>
+        <v>174</v>
       </c>
       <c r="G45" s="1">
-        <v>55.96</v>
+        <v>35.43</v>
       </c>
       <c r="H45" s="1">
-        <v>6.1</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="6">
-        <v>44029</v>
+        <v>44031</v>
       </c>
       <c r="C46" s="1">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>23.55</v>
+        <v>16.46</v>
       </c>
       <c r="E46" s="1">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="G46" s="1">
-        <v>31.85</v>
+        <v>43.4</v>
       </c>
       <c r="H46" s="1">
-        <v>7.23</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="6">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="C47" s="1">
-        <v>96</v>
+        <v>796</v>
       </c>
       <c r="D47" s="1">
-        <v>35.4</v>
+        <v>324.97000000000003</v>
       </c>
       <c r="E47" s="1">
-        <v>4.17</v>
+        <v>0.75</v>
       </c>
       <c r="F47" s="1">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1">
-        <v>35.43</v>
+        <v>53.59</v>
       </c>
       <c r="H47" s="1">
-        <v>5.75</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,49 +1593,31 @@
       <c r="B48" s="6">
         <v>44031</v>
       </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>16.46</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
       <c r="F48" s="1">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="G48" s="1">
-        <v>43.4</v>
+        <v>49.61</v>
       </c>
       <c r="H48" s="1">
-        <v>4.1900000000000004</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" s="6">
-        <v>44031</v>
-      </c>
-      <c r="C49" s="1">
-        <v>796</v>
-      </c>
-      <c r="D49" s="1">
-        <v>324.97000000000003</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.75</v>
+        <v>44032</v>
       </c>
       <c r="F49" s="1">
-        <v>137</v>
+        <v>403</v>
       </c>
       <c r="G49" s="1">
-        <v>53.59</v>
+        <v>52.48</v>
       </c>
       <c r="H49" s="1">
-        <v>2.92</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,189 +1625,189 @@
         <v>12</v>
       </c>
       <c r="B50" s="6">
-        <v>44031</v>
+        <v>44032</v>
+      </c>
+      <c r="C50" s="1">
+        <v>235</v>
+      </c>
+      <c r="D50" s="1">
+        <v>64.72</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.98</v>
       </c>
       <c r="F50" s="1">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="G50" s="1">
-        <v>49.61</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1">
-        <v>15.51</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B51" s="6">
         <v>44032</v>
       </c>
+      <c r="C51" s="1">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="E51" s="1">
+        <v>90.32</v>
+      </c>
       <c r="F51" s="1">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="G51" s="1">
-        <v>52.48</v>
+        <v>31.07</v>
       </c>
       <c r="H51" s="1">
-        <v>8.19</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B52" s="6">
         <v>44032</v>
       </c>
       <c r="C52" s="1">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="D52" s="1">
-        <v>64.72</v>
+        <v>42.1</v>
       </c>
       <c r="E52" s="1">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="F52" s="1">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="G52" s="1">
-        <v>52</v>
+        <v>39.72</v>
       </c>
       <c r="H52" s="1">
-        <v>3.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B53" s="6">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="C53" s="1">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1">
-        <v>11.31</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="E53" s="1">
-        <v>90.32</v>
+        <v>7.61</v>
       </c>
       <c r="F53" s="1">
-        <v>223</v>
+        <v>366</v>
       </c>
       <c r="G53" s="1">
-        <v>31.07</v>
+        <v>51.87</v>
       </c>
       <c r="H53" s="1">
-        <v>8.9700000000000006</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54" s="6">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="C54" s="1">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D54" s="1">
-        <v>42.1</v>
+        <v>46.93</v>
       </c>
       <c r="E54" s="1">
-        <v>3.54</v>
+        <v>27.65</v>
       </c>
       <c r="F54" s="1">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1">
-        <v>39.72</v>
+        <v>57.35</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="6">
         <v>44033</v>
       </c>
       <c r="C55" s="1">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D55" s="1">
-        <v>75.040000000000006</v>
+        <v>34.56</v>
       </c>
       <c r="E55" s="1">
-        <v>7.61</v>
+        <v>22.73</v>
       </c>
       <c r="F55" s="1">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1">
-        <v>51.87</v>
+        <v>45.38</v>
       </c>
       <c r="H55" s="1">
-        <v>4.92</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" s="6">
         <v>44033</v>
       </c>
-      <c r="C56" s="1">
-        <v>217</v>
-      </c>
-      <c r="D56" s="1">
-        <v>46.93</v>
-      </c>
-      <c r="E56" s="1">
-        <v>27.65</v>
-      </c>
       <c r="F56" s="1">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="G56" s="1">
-        <v>57.35</v>
+        <v>31.79</v>
       </c>
       <c r="H56" s="1">
-        <v>2.96</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" s="6">
-        <v>44033</v>
-      </c>
-      <c r="C57" s="1">
-        <v>220</v>
-      </c>
-      <c r="D57" s="1">
-        <v>34.56</v>
-      </c>
-      <c r="E57" s="1">
-        <v>22.73</v>
+        <v>44035</v>
       </c>
       <c r="F57" s="1">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="G57" s="1">
-        <v>45.38</v>
+        <v>39.1</v>
       </c>
       <c r="H57" s="1">
-        <v>5.41</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1702,84 +1815,102 @@
         <v>7</v>
       </c>
       <c r="B58" s="6">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="F58" s="1">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="G58" s="1">
-        <v>31.79</v>
+        <v>29.06</v>
       </c>
       <c r="H58" s="1">
-        <v>9.39</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" s="6">
         <v>44035</v>
       </c>
       <c r="F59" s="1">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="G59" s="1">
-        <v>39.1</v>
+        <v>52.22</v>
       </c>
       <c r="H59" s="1">
-        <v>3.69</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B60" s="6">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="F60" s="1">
-        <v>201</v>
+        <v>443</v>
       </c>
       <c r="G60" s="1">
-        <v>29.06</v>
+        <v>57.14</v>
       </c>
       <c r="H60" s="1">
-        <v>10.95</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B61" s="6">
-        <v>44035</v>
+        <v>44036</v>
+      </c>
+      <c r="C61" s="1">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1">
+        <v>50.27</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.33</v>
       </c>
       <c r="F61" s="1">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G61" s="1">
-        <v>52.22</v>
+        <v>58.38</v>
       </c>
       <c r="H61" s="1">
-        <v>2.67</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" s="6">
-        <v>44036</v>
+        <v>44037</v>
+      </c>
+      <c r="C62" s="1">
+        <v>31</v>
+      </c>
+      <c r="D62" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>443</v>
+        <v>324</v>
       </c>
       <c r="G62" s="1">
-        <v>57.14</v>
+        <v>44.15</v>
       </c>
       <c r="H62" s="1">
-        <v>6.32</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,129 +1918,120 @@
         <v>9</v>
       </c>
       <c r="B63" s="6">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="C63" s="1">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="D63" s="1">
-        <v>50.27</v>
+        <v>82.01</v>
       </c>
       <c r="E63" s="1">
-        <v>1.33</v>
+        <v>3.07</v>
       </c>
       <c r="F63" s="1">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="G63" s="1">
-        <v>58.38</v>
+        <v>38.24</v>
       </c>
       <c r="H63" s="1">
-        <v>3.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" s="6">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="C64" s="1">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1">
-        <v>34.700000000000003</v>
+        <v>22.53</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>5.77</v>
       </c>
       <c r="F64" s="1">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="G64" s="1">
-        <v>44.15</v>
+        <v>54.33</v>
       </c>
       <c r="H64" s="1">
-        <v>4.63</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B65" s="6">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="C65" s="1">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="D65" s="1">
-        <v>82.01</v>
+        <v>45.18</v>
       </c>
       <c r="E65" s="1">
-        <v>3.07</v>
+        <v>25</v>
       </c>
       <c r="F65" s="1">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="G65" s="1">
-        <v>38.24</v>
+        <v>56.26</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B66" s="6">
         <v>44038</v>
       </c>
-      <c r="C66" s="1">
-        <v>104</v>
-      </c>
-      <c r="D66" s="1">
-        <v>22.53</v>
-      </c>
-      <c r="E66" s="1">
-        <v>5.77</v>
-      </c>
       <c r="F66" s="1">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="G66" s="1">
-        <v>54.33</v>
+        <v>60.93</v>
       </c>
       <c r="H66" s="1">
-        <v>1.22</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" s="6">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="C67" s="1">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1">
-        <v>45.18</v>
+        <v>49.57</v>
       </c>
       <c r="E67" s="1">
-        <v>25</v>
+        <v>6.45</v>
       </c>
       <c r="F67" s="1">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="G67" s="1">
-        <v>56.26</v>
+        <v>50.7</v>
       </c>
       <c r="H67" s="1">
-        <v>1.08</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1917,85 +2039,82 @@
         <v>12</v>
       </c>
       <c r="B68" s="6">
-        <v>44038</v>
+        <v>44039</v>
+      </c>
+      <c r="C68" s="1">
+        <v>248</v>
+      </c>
+      <c r="D68" s="1">
+        <v>47.57</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4.6100000000000003</v>
       </c>
       <c r="F68" s="1">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="G68" s="1">
-        <v>60.93</v>
+        <v>62.57</v>
       </c>
       <c r="H68" s="1">
-        <v>7.52</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B69" s="6">
         <v>44039</v>
       </c>
-      <c r="C69" s="1">
-        <v>31</v>
-      </c>
-      <c r="D69" s="1">
-        <v>49.57</v>
-      </c>
-      <c r="E69" s="1">
-        <v>6.45</v>
-      </c>
       <c r="F69" s="1">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="G69" s="1">
-        <v>50.7</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="H69" s="1">
-        <v>4.1100000000000003</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B70" s="6">
         <v>44039</v>
       </c>
-      <c r="C70" s="1">
-        <v>248</v>
-      </c>
-      <c r="D70" s="1">
-        <v>47.57</v>
-      </c>
-      <c r="E70" s="1">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="F70" s="1">
-        <v>116</v>
-      </c>
-      <c r="G70" s="1">
-        <v>62.57</v>
-      </c>
-      <c r="H70" s="1">
-        <v>4.3099999999999996</v>
+      <c r="I70" s="1">
+        <v>390</v>
+      </c>
+      <c r="J70" s="1">
+        <v>111.61</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B71" s="6">
-        <v>44039</v>
+        <v>44041</v>
+      </c>
+      <c r="C71" s="1">
+        <v>148</v>
+      </c>
+      <c r="D71" s="1">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2.7</v>
       </c>
       <c r="F71" s="1">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="G71" s="1">
-        <v>37.590000000000003</v>
+        <v>48.16</v>
       </c>
       <c r="H71" s="1">
-        <v>10.58</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,13 +2122,262 @@
         <v>9</v>
       </c>
       <c r="B72" s="6">
-        <v>44039</v>
-      </c>
-      <c r="I72" s="1">
-        <v>390</v>
-      </c>
-      <c r="J72" s="1">
-        <v>111.61</v>
+        <v>44041</v>
+      </c>
+      <c r="C72" s="1">
+        <v>98</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42.36</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>101</v>
+      </c>
+      <c r="G72" s="1">
+        <v>55.55</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44041</v>
+      </c>
+      <c r="C73" s="1">
+        <v>188</v>
+      </c>
+      <c r="D73" s="1">
+        <v>62.61</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="F73" s="1">
+        <v>293</v>
+      </c>
+      <c r="G73" s="1">
+        <v>64.319999999999993</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44043</v>
+      </c>
+      <c r="F74" s="1">
+        <v>351</v>
+      </c>
+      <c r="G74" s="1">
+        <v>61.06</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44044</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1">
+        <v>46.71</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="F75" s="1">
+        <v>302</v>
+      </c>
+      <c r="G75" s="1">
+        <v>48.04</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="I75" s="1">
+        <v>8</v>
+      </c>
+      <c r="J75" s="1">
+        <v>626.09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44045</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="E76" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="F76" s="1">
+        <v>343</v>
+      </c>
+      <c r="G76" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44045</v>
+      </c>
+      <c r="C77" s="1">
+        <v>81</v>
+      </c>
+      <c r="D77" s="1">
+        <v>30.22</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12.35</v>
+      </c>
+      <c r="F77" s="1">
+        <v>58</v>
+      </c>
+      <c r="G77" s="1">
+        <v>47.25</v>
+      </c>
+      <c r="H77" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C78" s="1">
+        <v>30</v>
+      </c>
+      <c r="D78" s="1">
+        <v>48.58</v>
+      </c>
+      <c r="E78" s="1">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F78" s="1">
+        <v>371</v>
+      </c>
+      <c r="G78" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C79" s="1">
+        <v>235</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43.77</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F79" s="1">
+        <v>113</v>
+      </c>
+      <c r="G79" s="1">
+        <v>61.12</v>
+      </c>
+      <c r="H79" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I79" s="1">
+        <v>42</v>
+      </c>
+      <c r="J79" s="1">
+        <v>150.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44046</v>
+      </c>
+      <c r="D80" s="1">
+        <v>127</v>
+      </c>
+      <c r="E80" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="G80" s="1">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1">
+        <v>31.93</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45</v>
+      </c>
+      <c r="D81" s="1">
+        <v>21.63</v>
+      </c>
+      <c r="E81" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="F81" s="1">
+        <v>188</v>
+      </c>
+      <c r="G81" s="1">
+        <v>33.79</v>
+      </c>
+      <c r="H81" s="1">
+        <v>4.79</v>
       </c>
     </row>
   </sheetData>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -78,18 +78,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -136,11 +130,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +2372,411 @@
       </c>
       <c r="H81" s="1">
         <v>4.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44048</v>
+      </c>
+      <c r="C82" s="1">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1">
+        <v>28.55</v>
+      </c>
+      <c r="E82" s="1">
+        <v>20</v>
+      </c>
+      <c r="F82" s="1">
+        <v>144</v>
+      </c>
+      <c r="G82" s="1">
+        <v>30.72</v>
+      </c>
+      <c r="H82" s="1">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44048</v>
+      </c>
+      <c r="C83" s="1">
+        <v>144</v>
+      </c>
+      <c r="D83" s="1">
+        <v>40.58</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="F83" s="1">
+        <v>38</v>
+      </c>
+      <c r="G83" s="1">
+        <v>69.87</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44048</v>
+      </c>
+      <c r="F84" s="1">
+        <v>268</v>
+      </c>
+      <c r="G84" s="1">
+        <v>39.22</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44048</v>
+      </c>
+      <c r="F85" s="1">
+        <v>24</v>
+      </c>
+      <c r="G85" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44049</v>
+      </c>
+      <c r="C86" s="1">
+        <v>204</v>
+      </c>
+      <c r="D86" s="1">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="F86" s="1">
+        <v>95</v>
+      </c>
+      <c r="G86" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44049</v>
+      </c>
+      <c r="F87" s="1">
+        <v>138</v>
+      </c>
+      <c r="G87" s="1">
+        <v>63.99</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="6">
+        <v>44050</v>
+      </c>
+      <c r="F88" s="1">
+        <v>335</v>
+      </c>
+      <c r="G88" s="1">
+        <v>44.95</v>
+      </c>
+      <c r="H88" s="1">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44050</v>
+      </c>
+      <c r="C89" s="1">
+        <v>72</v>
+      </c>
+      <c r="D89" s="1">
+        <v>21.01</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F89" s="1">
+        <v>73</v>
+      </c>
+      <c r="G89" s="1">
+        <v>44.47</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44060</v>
+      </c>
+      <c r="C90" s="1">
+        <v>206</v>
+      </c>
+      <c r="D90" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="F90" s="1">
+        <v>148</v>
+      </c>
+      <c r="G90" s="1">
+        <v>51.53</v>
+      </c>
+      <c r="H90" s="1">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="6">
+        <v>44060</v>
+      </c>
+      <c r="C91" s="1">
+        <v>164</v>
+      </c>
+      <c r="D91" s="1">
+        <v>37.49</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="F91" s="1">
+        <v>56</v>
+      </c>
+      <c r="G91" s="1">
+        <v>43.05</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="6">
+        <v>44060</v>
+      </c>
+      <c r="C92" s="1">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1">
+        <v>22.13</v>
+      </c>
+      <c r="E92" s="1">
+        <v>27.27</v>
+      </c>
+      <c r="F92" s="1">
+        <v>148</v>
+      </c>
+      <c r="G92" s="1">
+        <v>23.57</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="6">
+        <v>44060</v>
+      </c>
+      <c r="C93" s="1">
+        <v>70</v>
+      </c>
+      <c r="D93" s="1">
+        <v>15.86</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6">
+        <v>44062</v>
+      </c>
+      <c r="C94" s="1">
+        <v>52</v>
+      </c>
+      <c r="D94" s="1">
+        <v>22.38</v>
+      </c>
+      <c r="E94" s="1">
+        <v>23.08</v>
+      </c>
+      <c r="F94" s="1">
+        <v>154</v>
+      </c>
+      <c r="G94" s="1">
+        <v>44.89</v>
+      </c>
+      <c r="H94" s="1">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="6">
+        <v>44062</v>
+      </c>
+      <c r="C95" s="1">
+        <v>79</v>
+      </c>
+      <c r="D95" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="F95" s="1">
+        <v>84</v>
+      </c>
+      <c r="G95" s="1">
+        <v>43.51</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="6">
+        <v>44062</v>
+      </c>
+      <c r="C96" s="1">
+        <v>159</v>
+      </c>
+      <c r="D96" s="1">
+        <v>25.53</v>
+      </c>
+      <c r="E96" s="1">
+        <v>16.98</v>
+      </c>
+      <c r="F96" s="1">
+        <v>20</v>
+      </c>
+      <c r="G96" s="1">
+        <v>49.56</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="6">
+        <v>44062</v>
+      </c>
+      <c r="C97" s="1">
+        <v>403</v>
+      </c>
+      <c r="D97" s="1">
+        <v>52.63</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="6">
+        <v>44064</v>
+      </c>
+      <c r="F98" s="1">
+        <v>442</v>
+      </c>
+      <c r="G98" s="1">
+        <v>59.82</v>
+      </c>
+      <c r="H98" s="1">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="6">
+        <v>44064</v>
+      </c>
+      <c r="C99" s="1">
+        <v>72</v>
+      </c>
+      <c r="D99" s="1">
+        <v>25.47</v>
+      </c>
+      <c r="E99" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F99" s="1">
+        <v>84</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44.98</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
